--- a/OpenGovCore/data/raw_data/old_loksabha_data.xlsx
+++ b/OpenGovCore/data/raw_data/old_loksabha_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9011" uniqueCount="4468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9011" uniqueCount="4469">
   <si>
     <t>Candidate_Name</t>
   </si>
@@ -13482,6 +13482,9 @@
   </si>
   <si>
     <t>https://prsindia.org/files/mptrack/15-lok-sabha/profile_image/150374.jpg</t>
+  </si>
+  <si>
+    <t>Dadra and Nagar Haveli and Daman and Diu</t>
   </si>
 </sst>
 </file>
@@ -13882,8 +13885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M1133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F699" sqref="F699"/>
+    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="D328" sqref="D328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24846,7 +24849,7 @@
         <v>1335</v>
       </c>
       <c r="D327" t="s">
-        <v>1335</v>
+        <v>4468</v>
       </c>
       <c r="E327">
         <v>16</v>
@@ -24870,7 +24873,7 @@
         <v>1336</v>
       </c>
       <c r="D328" t="s">
-        <v>1336</v>
+        <v>4468</v>
       </c>
       <c r="E328">
         <v>16</v>

--- a/OpenGovCore/data/raw_data/old_loksabha_data.xlsx
+++ b/OpenGovCore/data/raw_data/old_loksabha_data.xlsx
@@ -13885,8 +13885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M1133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="D328" sqref="D328"/>
+    <sheetView tabSelected="1" topLeftCell="A1024" workbookViewId="0">
+      <selection activeCell="D897" sqref="D897"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
